--- a/data/transformed_data_2014.xlsx
+++ b/data/transformed_data_2014.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>657113.9396017069</v>
+        <v>664677.6384017068</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>66108.84</v>
+        <v>56853.6024</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12082.42</v>
+        <v>10390.8812</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5101,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19007.81995846372</v>
+        <v>18733.28275846372</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5437,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>55.86</v>
+        <v>48.03959999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5605,7 +5605,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2016.84</v>
+        <v>1734.4824</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7816,7 +7816,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14076.99465092461</v>
+        <v>14932.16225092461</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8152,7 +8152,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>12720.4</v>
+        <v>10939.544</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8320,7 +8320,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6612.059999999999</v>
+        <v>5686.3716</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4135.067872546229</v>
+        <v>4120.11307254623</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10895,7 +10895,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>997.64</v>
+        <v>857.9704</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1104.46</v>
+        <v>949.8356</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16142.16239601707</v>
+        <v>16625.92959601706</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>13573.98</v>
+        <v>11673.6228</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10118.5</v>
+        <v>8701.91</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16045,7 +16045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14923.342</v>
+        <v>14817.698</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>852.6</v>
+        <v>733.2359999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16549,7 +16549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1607.2</v>
+        <v>1382.192</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18774,7 +18774,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14691.91169615932</v>
+        <v>14242.44449615932</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19110,7 +19110,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7731.22</v>
+        <v>6648.8492</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19278,7 +19278,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>10941.7</v>
+        <v>9409.861999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21517,7 +21517,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7879.89720796586</v>
+        <v>8195.59440796586</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21853,7 +21853,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8763.16</v>
+        <v>7536.317599999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22021,7 +22021,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6508.18</v>
+        <v>5597.0348</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24260,7 +24260,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>18662.55291038407</v>
+        <v>17781.31731038407</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5706.54</v>
+        <v>4907.6244</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12001.08</v>
+        <v>10320.9288</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27003,7 +27003,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13568.90850697013</v>
+        <v>13168.69610697013</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27339,7 +27339,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1675.8</v>
+        <v>1441.188</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27507,7 +27507,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4534.46</v>
+        <v>3899.6356</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29732,7 +29732,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8108.080240682788</v>
+        <v>8416.643040682789</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30068,7 +30068,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8920.940000000001</v>
+        <v>7672.0084</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30236,7 +30236,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6716.92</v>
+        <v>5776.5512</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32475,7 +32475,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>80696.29069416784</v>
+        <v>80816.06629416785</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32811,7 +32811,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5190.08</v>
+        <v>4463.4688</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32979,7 +32979,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4334.54</v>
+        <v>3727.7044</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35190,7 +35190,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10023.80052290185</v>
+        <v>9872.880522901849</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35526,7 +35526,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>236.18</v>
+        <v>203.1148</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35694,7 +35694,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1314.18</v>
+        <v>1130.1948</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37919,7 +37919,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12891.33831920341</v>
+        <v>12213.43311920341</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38255,7 +38255,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>751.66</v>
+        <v>646.4276</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38423,7 +38423,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5593.84</v>
+        <v>4810.7024</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40648,7 +40648,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3372.181143100996</v>
+        <v>3373.690343100995</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40984,7 +40984,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3587.78</v>
+        <v>3085.4908</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41152,7 +41152,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3577</v>
+        <v>3076.22</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43391,7 +43391,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2744.425372972972</v>
+        <v>2716.985372972972</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43727,7 +43727,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7414.68</v>
+        <v>6376.624800000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43895,7 +43895,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7610.68</v>
+        <v>6545.1848</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46134,7 +46134,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13754.64778150782</v>
+        <v>12997.16658150782</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46470,7 +46470,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5731.04</v>
+        <v>4928.694399999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46638,7 +46638,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11141.62</v>
+        <v>9581.7932</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48877,7 +48877,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3041.533436699857</v>
+        <v>3046.472636699858</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49213,7 +49213,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6726.72</v>
+        <v>5784.9792</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49381,7 +49381,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6691.44</v>
+        <v>5754.6384</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51592,7 +51592,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9253.652118918919</v>
+        <v>8591.387718918919</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51928,7 +51928,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>812.42</v>
+        <v>698.6811999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52096,7 +52096,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5542.88</v>
+        <v>4766.8768</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54335,7 +54335,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4030.78212745377</v>
+        <v>4022.55012745377</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54671,7 +54671,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1758.12</v>
+        <v>1511.9832</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54839,7 +54839,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1816.92</v>
+        <v>1562.5512</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57064,7 +57064,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9816.392932574679</v>
+        <v>9744.911732574679</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57400,7 +57400,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1826.72</v>
+        <v>1570.9792</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57568,7 +57568,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2337.3</v>
+        <v>2010.078</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59793,7 +59793,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14515.41350099573</v>
+        <v>14764.84310099573</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60129,7 +60129,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5018.58</v>
+        <v>4315.9788</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60297,7 +60297,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3236.94</v>
+        <v>2783.7684</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62522,7 +62522,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>45290.04196415362</v>
+        <v>47426.65756415363</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62858,7 +62858,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>22499.82</v>
+        <v>19349.8452</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63026,7 +63026,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7238.28</v>
+        <v>6224.9208</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65265,7 +65265,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3510.330223613087</v>
+        <v>3436.791023613087</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65601,7 +65601,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2592.1</v>
+        <v>2229.206</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65769,7 +65769,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3117.38</v>
+        <v>2680.9468</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68008,7 +68008,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>104796.9643647226</v>
+        <v>102501.0595647226</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68344,7 +68344,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21950.04</v>
+        <v>18877.0344</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68512,7 +68512,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>38349.36</v>
+        <v>32980.44959999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70751,7 +70751,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>43685.34058776671</v>
+        <v>42661.69138776671</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71087,7 +71087,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1890.42</v>
+        <v>1625.7612</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71255,7 +71255,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9202.200000000001</v>
+        <v>7913.892</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73494,7 +73494,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>35503.97182076814</v>
+        <v>37727.43502076813</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73830,7 +73830,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21847.14</v>
+        <v>18788.5404</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -73998,7 +73998,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5965.26</v>
+        <v>5130.1236</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76223,7 +76223,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22047.06582702703</v>
+        <v>23456.10982702703</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76559,7 +76559,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>31419.78</v>
+        <v>27021.0108</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76727,7 +76727,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>21355.18</v>
+        <v>18365.4548</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78966,7 +78966,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24673.86655362731</v>
+        <v>24992.99375362731</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79302,7 +79302,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6113.24</v>
+        <v>5257.3864</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79470,7 +79470,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3833.76</v>
+        <v>3297.0336</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81709,7 +81709,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24346.45864637269</v>
+        <v>24026.64544637269</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82045,7 +82045,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2315.74</v>
+        <v>1991.5364</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82213,7 +82213,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4600.12</v>
+        <v>3956.1032</v>
       </c>
     </row>
     <row r="168" spans="1:4">
